--- a/archivos_ejemplo/excel_prueba/error_ejemplo.xlsx
+++ b/archivos_ejemplo/excel_prueba/error_ejemplo.xlsx
@@ -1,29 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ferro\OneDrive\Escritorio\Mejor_ninez\archivos_ejemplo\excel_prueba\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8817E2EA-8170-4ED5-90F1-440C60AE9378}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{857E3FE3-BD5E-43CC-9B00-669F0009F26D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="13056" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="13056" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$W$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AA$10</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="159">
   <si>
     <t>codNNA</t>
   </si>
@@ -46,12 +46,6 @@
     <t>nombres</t>
   </si>
   <si>
-    <t>fechanacimiento</t>
-  </si>
-  <si>
-    <t>rut</t>
-  </si>
-  <si>
     <t>fechaingreso</t>
   </si>
   <si>
@@ -82,9 +76,6 @@
     <t>Comuna</t>
   </si>
   <si>
-    <t>SolicitanteIngreso</t>
-  </si>
-  <si>
     <t>Tribunal</t>
   </si>
   <si>
@@ -473,6 +464,42 @@
   </si>
   <si>
     <t>VÍCTIMA DE VULNERACION</t>
+  </si>
+  <si>
+    <t>Fecha de inicio</t>
+  </si>
+  <si>
+    <t>duracion en meses</t>
+  </si>
+  <si>
+    <t>tipo de programa</t>
+  </si>
+  <si>
+    <t>Capacidad</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>PRM</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>PIE</t>
+  </si>
+  <si>
+    <t>AFT</t>
+  </si>
+  <si>
+    <t>fecha_nacimiento</t>
+  </si>
+  <si>
+    <t>RUT</t>
+  </si>
+  <si>
+    <t>Solicitante_Ingreso</t>
   </si>
 </sst>
 </file>
@@ -587,7 +614,10 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="6">
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -669,21 +699,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{411CBDBC-4230-46EB-968D-9A11E6BCCACD}" name="Tabla1" displayName="Tabla1" ref="A1:W10" totalsRowShown="0" headerRowDxfId="4" headerRowBorderDxfId="3" tableBorderDxfId="2">
-  <autoFilter ref="A1:W10" xr:uid="{411CBDBC-4230-46EB-968D-9A11E6BCCACD}"/>
-  <tableColumns count="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{411CBDBC-4230-46EB-968D-9A11E6BCCACD}" name="Tabla1" displayName="Tabla1" ref="A1:AA10" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="A1:AA10" xr:uid="{411CBDBC-4230-46EB-968D-9A11E6BCCACD}"/>
+  <tableColumns count="27">
     <tableColumn id="1" xr3:uid="{72322131-C67F-4270-825B-9B5E383678F0}" name="codNNA"/>
     <tableColumn id="2" xr3:uid="{ED980EFA-C489-4BC3-9E33-CBD10CCD4D7A}" name="institucion"/>
     <tableColumn id="3" xr3:uid="{8AC6A1CC-9F7E-4874-BB1F-58EA18230392}" name="CodProyecto"/>
     <tableColumn id="4" xr3:uid="{A224BBB1-F9DE-482C-A063-187DE76FB2D5}" name="proyecto"/>
+    <tableColumn id="27" xr3:uid="{5EE0CDCF-CA5C-4902-BB79-C5C87BDA2083}" name="Fecha de inicio" dataDxfId="0"/>
+    <tableColumn id="24" xr3:uid="{2179047E-D329-4F3B-AED8-BE52FB8DE427}" name="duracion en meses"/>
+    <tableColumn id="26" xr3:uid="{B85E4E35-A23D-4827-962D-6959A7B86019}" name="tipo de programa"/>
+    <tableColumn id="25" xr3:uid="{66820991-D3BB-4A0E-A12F-036CBBDBC77E}" name="Capacidad"/>
     <tableColumn id="5" xr3:uid="{86C61011-568D-4AE7-80F6-BFBA03D7D7BD}" name="apellido_paterno"/>
     <tableColumn id="6" xr3:uid="{29D3D708-70FF-4E8C-B211-225F0D629C6E}" name="apellido_materno"/>
     <tableColumn id="7" xr3:uid="{2473F7D8-5750-447D-BAB3-AD3A6572BA34}" name="nombres"/>
-    <tableColumn id="8" xr3:uid="{5B0760E7-6925-4392-823D-7903FF1773A3}" name="fechanacimiento"/>
-    <tableColumn id="9" xr3:uid="{DEFBBF5B-B15B-4CED-8663-A22F6FC19CB6}" name="rut"/>
+    <tableColumn id="8" xr3:uid="{5B0760E7-6925-4392-823D-7903FF1773A3}" name="fecha_nacimiento"/>
+    <tableColumn id="9" xr3:uid="{DEFBBF5B-B15B-4CED-8663-A22F6FC19CB6}" name="RUT"/>
     <tableColumn id="10" xr3:uid="{16F774BC-2DF5-4E46-9F02-E176F24E833C}" name="fechaingreso"/>
     <tableColumn id="11" xr3:uid="{E7C63BDB-5C41-4FD3-B3E3-A534027216BA}" name="fechaegreso"/>
-    <tableColumn id="12" xr3:uid="{DBB344F5-BF95-42D9-8F8B-C38ED7C2DBBC}" name="vigencia" dataDxfId="1"/>
+    <tableColumn id="12" xr3:uid="{DBB344F5-BF95-42D9-8F8B-C38ED7C2DBBC}" name="vigencia" dataDxfId="2"/>
     <tableColumn id="13" xr3:uid="{5F188C74-80BB-4799-9461-D57F6BF5DEC7}" name="sexo"/>
     <tableColumn id="14" xr3:uid="{C0F6918D-0B9B-4801-A5A1-B0CBC5D6F8AB}" name="Nacionalidad"/>
     <tableColumn id="15" xr3:uid="{5BA37DB0-4F13-4FC3-BE83-CA6B30542998}" name="TipoAtencion"/>
@@ -691,7 +725,7 @@
     <tableColumn id="17" xr3:uid="{4B7B6D1C-D928-45F8-80DB-F9E482D82DA4}" name="DireccionNino"/>
     <tableColumn id="18" xr3:uid="{9F494E16-B4C3-435E-A0C7-C6854E43B493}" name="RegionNino"/>
     <tableColumn id="19" xr3:uid="{8D34F3E7-2241-422D-856D-377B617ED4AA}" name="Comuna"/>
-    <tableColumn id="20" xr3:uid="{ABB986FD-4424-420E-96EC-062C6791E355}" name="SolicitanteIngreso"/>
+    <tableColumn id="20" xr3:uid="{ABB986FD-4424-420E-96EC-062C6791E355}" name="Solicitante_Ingreso"/>
     <tableColumn id="21" xr3:uid="{9FEE4E9F-F99F-4C53-8BCC-81F324409583}" name="Tribunal"/>
     <tableColumn id="22" xr3:uid="{5448A616-FB5C-4D9B-87A6-0889B8EAEF13}" name="Expediente"/>
     <tableColumn id="23" xr3:uid="{31729B90-D0C6-4C44-9B67-12CC52273EF8}" name="CausalIngreso_1"/>
@@ -987,10 +1021,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W10"/>
+  <dimension ref="A1:AA10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="V19" sqref="V19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -999,28 +1033,32 @@
     <col min="2" max="2" width="26.77734375" customWidth="1"/>
     <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="41" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" customWidth="1"/>
-    <col min="6" max="6" width="17.77734375" customWidth="1"/>
-    <col min="7" max="7" width="10.33203125" customWidth="1"/>
-    <col min="8" max="8" width="17" customWidth="1"/>
-    <col min="9" max="9" width="15.5546875" customWidth="1"/>
-    <col min="10" max="10" width="13.6640625" customWidth="1"/>
-    <col min="11" max="11" width="13.109375" customWidth="1"/>
-    <col min="12" max="12" width="12.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.109375" customWidth="1"/>
-    <col min="14" max="14" width="13.88671875" customWidth="1"/>
-    <col min="15" max="15" width="14.109375" customWidth="1"/>
-    <col min="16" max="16" width="15.44140625" customWidth="1"/>
-    <col min="17" max="17" width="14.6640625" customWidth="1"/>
-    <col min="18" max="18" width="12.6640625" customWidth="1"/>
-    <col min="19" max="19" width="10" customWidth="1"/>
-    <col min="20" max="20" width="17.88671875" customWidth="1"/>
-    <col min="21" max="21" width="9.77734375" customWidth="1"/>
-    <col min="22" max="22" width="12.21875" customWidth="1"/>
-    <col min="23" max="23" width="46" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" customWidth="1"/>
+    <col min="7" max="7" width="18.88671875" customWidth="1"/>
+    <col min="8" max="8" width="17.77734375" customWidth="1"/>
+    <col min="9" max="9" width="17.21875" customWidth="1"/>
+    <col min="10" max="10" width="17.77734375" customWidth="1"/>
+    <col min="11" max="11" width="10.33203125" customWidth="1"/>
+    <col min="12" max="12" width="17" customWidth="1"/>
+    <col min="13" max="13" width="15.5546875" customWidth="1"/>
+    <col min="14" max="14" width="13.6640625" customWidth="1"/>
+    <col min="15" max="15" width="13.109375" customWidth="1"/>
+    <col min="16" max="16" width="12.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.109375" customWidth="1"/>
+    <col min="18" max="18" width="13.88671875" customWidth="1"/>
+    <col min="19" max="19" width="14.109375" customWidth="1"/>
+    <col min="20" max="20" width="15.44140625" customWidth="1"/>
+    <col min="21" max="21" width="14.6640625" customWidth="1"/>
+    <col min="22" max="22" width="12.6640625" customWidth="1"/>
+    <col min="23" max="23" width="10" customWidth="1"/>
+    <col min="24" max="24" width="17.88671875" customWidth="1"/>
+    <col min="25" max="25" width="9.77734375" customWidth="1"/>
+    <col min="26" max="26" width="12.21875" customWidth="1"/>
+    <col min="27" max="27" width="46" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1033,707 +1071,827 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F1" t="s">
+        <v>148</v>
+      </c>
+      <c r="G1" t="s">
+        <v>149</v>
+      </c>
+      <c r="H1" t="s">
+        <v>150</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="L1" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="P1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="R1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="X1" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="Y1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>22</v>
-      </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>4965665</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C2">
         <v>8890974</v>
       </c>
       <c r="D2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="F2" t="s">
-        <v>48</v>
+        <v>151</v>
       </c>
       <c r="G2" t="s">
-        <v>53</v>
-      </c>
-      <c r="H2" t="s">
-        <v>68</v>
+        <v>152</v>
+      </c>
+      <c r="H2">
+        <v>28</v>
       </c>
       <c r="I2" t="s">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="J2" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
       <c r="K2" t="s">
-        <v>95</v>
-      </c>
-      <c r="L2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M2" t="s">
+        <v>74</v>
+      </c>
+      <c r="N2" t="s">
+        <v>81</v>
+      </c>
+      <c r="O2" t="s">
+        <v>92</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>100</v>
+      </c>
+      <c r="R2" t="s">
         <v>102</v>
       </c>
-      <c r="M2" t="s">
+      <c r="S2" t="s">
         <v>103</v>
       </c>
-      <c r="N2" t="s">
+      <c r="T2" t="s">
         <v>105</v>
       </c>
-      <c r="O2" t="s">
-        <v>106</v>
-      </c>
-      <c r="P2" t="s">
+      <c r="U2" t="s">
         <v>108</v>
       </c>
-      <c r="Q2" t="s">
-        <v>111</v>
-      </c>
-      <c r="R2">
+      <c r="V2">
         <v>16</v>
       </c>
-      <c r="S2" t="s">
-        <v>120</v>
-      </c>
-      <c r="T2" t="s">
-        <v>128</v>
-      </c>
-      <c r="U2" t="s">
-        <v>129</v>
-      </c>
-      <c r="V2" t="s">
-        <v>138</v>
-      </c>
       <c r="W2" t="s">
-        <v>147</v>
+        <v>117</v>
+      </c>
+      <c r="X2" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>126</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>144</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3233913</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C3">
         <v>1591408</v>
       </c>
       <c r="D3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E3" t="s">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="F3" t="s">
-        <v>55</v>
+        <v>153</v>
       </c>
       <c r="G3" t="s">
-        <v>61</v>
-      </c>
-      <c r="H3" t="s">
-        <v>69</v>
+        <v>152</v>
+      </c>
+      <c r="H3">
+        <v>34</v>
       </c>
       <c r="I3" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="J3" t="s">
-        <v>85</v>
+        <v>52</v>
       </c>
       <c r="K3" t="s">
-        <v>96</v>
-      </c>
-      <c r="L3" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L3" t="s">
+        <v>66</v>
+      </c>
+      <c r="M3" t="s">
+        <v>75</v>
+      </c>
+      <c r="N3" t="s">
+        <v>82</v>
+      </c>
+      <c r="O3" t="s">
+        <v>93</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>100</v>
+      </c>
+      <c r="R3" t="s">
         <v>102</v>
       </c>
-      <c r="M3" t="s">
+      <c r="S3" t="s">
         <v>103</v>
       </c>
-      <c r="N3" t="s">
+      <c r="T3" t="s">
         <v>105</v>
       </c>
-      <c r="O3" t="s">
-        <v>106</v>
-      </c>
-      <c r="P3" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>112</v>
-      </c>
-      <c r="R3">
+      <c r="U3" t="s">
+        <v>109</v>
+      </c>
+      <c r="V3">
         <v>4</v>
       </c>
-      <c r="S3" t="s">
-        <v>121</v>
-      </c>
-      <c r="T3" t="s">
-        <v>128</v>
-      </c>
-      <c r="U3" t="s">
-        <v>130</v>
-      </c>
-      <c r="V3" t="s">
-        <v>139</v>
-      </c>
       <c r="W3" t="s">
-        <v>148</v>
+        <v>118</v>
+      </c>
+      <c r="X3" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>127</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>136</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>145</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>64496413</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C4">
         <v>6650923</v>
       </c>
       <c r="D4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="F4" t="s">
-        <v>60</v>
+        <v>151</v>
       </c>
       <c r="G4" t="s">
-        <v>62</v>
-      </c>
-      <c r="H4" t="s">
-        <v>70</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>79</v>
+        <v>152</v>
+      </c>
+      <c r="H4">
+        <v>21</v>
+      </c>
+      <c r="I4" t="s">
+        <v>40</v>
       </c>
       <c r="J4" t="s">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="K4" t="s">
-        <v>97</v>
-      </c>
-      <c r="L4" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L4" t="s">
+        <v>67</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="N4" t="s">
+        <v>83</v>
+      </c>
+      <c r="O4" t="s">
+        <v>94</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>100</v>
+      </c>
+      <c r="R4" t="s">
         <v>102</v>
       </c>
-      <c r="M4" t="s">
+      <c r="S4" t="s">
         <v>103</v>
       </c>
-      <c r="N4" t="s">
-        <v>105</v>
-      </c>
-      <c r="O4" t="s">
+      <c r="T4" t="s">
         <v>106</v>
       </c>
-      <c r="P4" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>113</v>
-      </c>
-      <c r="R4">
+      <c r="U4" t="s">
+        <v>110</v>
+      </c>
+      <c r="V4">
         <v>5</v>
       </c>
-      <c r="S4" t="s">
-        <v>122</v>
-      </c>
-      <c r="T4" t="s">
+      <c r="W4" t="s">
+        <v>119</v>
+      </c>
+      <c r="X4" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y4" t="s">
         <v>128</v>
       </c>
-      <c r="U4" t="s">
-        <v>131</v>
-      </c>
-      <c r="V4" t="s">
-        <v>140</v>
-      </c>
-      <c r="W4" t="s">
-        <v>148</v>
+      <c r="Z4" t="s">
+        <v>137</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>145</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>7121112</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C5">
         <v>6650923</v>
       </c>
       <c r="D5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="F5" t="s">
-        <v>49</v>
+        <v>151</v>
       </c>
       <c r="G5" t="s">
-        <v>63</v>
-      </c>
-      <c r="H5" t="s">
-        <v>71</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>79</v>
+        <v>152</v>
+      </c>
+      <c r="H5">
+        <v>35</v>
+      </c>
+      <c r="I5" t="s">
+        <v>41</v>
       </c>
       <c r="J5" t="s">
-        <v>87</v>
+        <v>46</v>
       </c>
       <c r="K5" t="s">
-        <v>98</v>
-      </c>
-      <c r="L5" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L5" t="s">
+        <v>68</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="N5" t="s">
+        <v>84</v>
+      </c>
+      <c r="O5" t="s">
+        <v>95</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>101</v>
+      </c>
+      <c r="R5" t="s">
         <v>102</v>
       </c>
-      <c r="M5" t="s">
-        <v>104</v>
-      </c>
-      <c r="N5" t="s">
-        <v>105</v>
-      </c>
-      <c r="O5" t="s">
+      <c r="S5" t="s">
+        <v>103</v>
+      </c>
+      <c r="T5" t="s">
         <v>106</v>
       </c>
-      <c r="P5" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>114</v>
-      </c>
-      <c r="R5">
+      <c r="U5" t="s">
+        <v>111</v>
+      </c>
+      <c r="V5">
         <v>3</v>
       </c>
-      <c r="S5" t="s">
-        <v>123</v>
-      </c>
-      <c r="T5" t="s">
-        <v>128</v>
-      </c>
-      <c r="U5" t="s">
-        <v>132</v>
-      </c>
-      <c r="V5" t="s">
-        <v>141</v>
-      </c>
       <c r="W5" t="s">
-        <v>148</v>
+        <v>120</v>
+      </c>
+      <c r="X5" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>129</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>138</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>145</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>7707325</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C6">
         <v>4414276</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E6" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="F6" t="s">
-        <v>51</v>
+        <v>153</v>
       </c>
       <c r="G6" t="s">
-        <v>64</v>
-      </c>
-      <c r="H6" t="s">
-        <v>72</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>79</v>
+        <v>154</v>
+      </c>
+      <c r="H6">
+        <v>27</v>
+      </c>
+      <c r="I6" t="s">
+        <v>42</v>
       </c>
       <c r="J6" t="s">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="K6" t="s">
+        <v>61</v>
+      </c>
+      <c r="L6" t="s">
+        <v>69</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="N6" t="s">
+        <v>85</v>
+      </c>
+      <c r="O6" t="s">
+        <v>96</v>
+      </c>
+      <c r="P6" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="Q6" t="s">
+        <v>101</v>
+      </c>
+      <c r="R6" t="s">
         <v>102</v>
       </c>
-      <c r="M6" t="s">
+      <c r="S6" t="s">
         <v>104</v>
       </c>
-      <c r="N6" t="s">
-        <v>105</v>
-      </c>
-      <c r="O6" t="s">
+      <c r="T6" t="s">
         <v>107</v>
       </c>
-      <c r="P6" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>115</v>
-      </c>
-      <c r="R6">
+      <c r="U6" t="s">
+        <v>112</v>
+      </c>
+      <c r="V6">
         <v>1</v>
       </c>
-      <c r="S6" t="s">
-        <v>124</v>
-      </c>
-      <c r="T6" t="s">
-        <v>128</v>
-      </c>
-      <c r="U6" t="s">
-        <v>133</v>
-      </c>
-      <c r="V6" t="s">
-        <v>142</v>
-      </c>
       <c r="W6" t="s">
-        <v>149</v>
+        <v>121</v>
+      </c>
+      <c r="X6" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>130</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>139</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>146</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6616888</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C7">
         <v>1562056</v>
       </c>
       <c r="D7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E7" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="F7" t="s">
-        <v>59</v>
+        <v>151</v>
       </c>
       <c r="G7" t="s">
-        <v>57</v>
-      </c>
-      <c r="H7" t="s">
-        <v>73</v>
+        <v>152</v>
+      </c>
+      <c r="H7">
+        <v>33</v>
       </c>
       <c r="I7" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="J7" t="s">
-        <v>89</v>
+        <v>56</v>
       </c>
       <c r="K7" t="s">
+        <v>54</v>
+      </c>
+      <c r="L7" t="s">
+        <v>70</v>
+      </c>
+      <c r="M7" t="s">
+        <v>77</v>
+      </c>
+      <c r="N7" t="s">
+        <v>86</v>
+      </c>
+      <c r="O7" t="s">
+        <v>97</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q7" t="s">
         <v>100</v>
       </c>
-      <c r="L7" s="3" t="s">
+      <c r="R7" t="s">
         <v>102</v>
       </c>
-      <c r="M7" t="s">
+      <c r="S7" t="s">
         <v>103</v>
       </c>
-      <c r="N7" t="s">
-        <v>105</v>
-      </c>
-      <c r="O7" t="s">
-        <v>106</v>
-      </c>
-      <c r="P7" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>116</v>
-      </c>
-      <c r="R7">
+      <c r="T7" t="s">
+        <v>107</v>
+      </c>
+      <c r="U7" t="s">
+        <v>113</v>
+      </c>
+      <c r="V7">
         <v>16</v>
       </c>
-      <c r="S7" t="s">
+      <c r="W7" t="s">
+        <v>122</v>
+      </c>
+      <c r="X7" t="s">
         <v>125</v>
       </c>
-      <c r="T7" t="s">
-        <v>128</v>
-      </c>
-      <c r="U7" t="s">
-        <v>134</v>
-      </c>
-      <c r="V7" t="s">
-        <v>143</v>
-      </c>
-      <c r="W7" t="s">
-        <v>149</v>
+      <c r="Y7" t="s">
+        <v>131</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>146</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2840994</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C8">
         <v>250244</v>
       </c>
       <c r="D8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E8" t="s">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="F8" t="s">
-        <v>56</v>
+        <v>151</v>
       </c>
       <c r="G8" t="s">
-        <v>65</v>
-      </c>
-      <c r="H8" t="s">
-        <v>74</v>
+        <v>152</v>
+      </c>
+      <c r="H8">
+        <v>40</v>
       </c>
       <c r="I8" t="s">
-        <v>81</v>
+        <v>44</v>
       </c>
       <c r="J8" t="s">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="K8" t="s">
-        <v>101</v>
-      </c>
-      <c r="L8" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="L8" t="s">
+        <v>71</v>
+      </c>
+      <c r="M8" t="s">
+        <v>78</v>
+      </c>
+      <c r="N8" t="s">
+        <v>87</v>
+      </c>
+      <c r="O8" t="s">
+        <v>98</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>100</v>
+      </c>
+      <c r="R8" t="s">
         <v>102</v>
       </c>
-      <c r="M8" t="s">
+      <c r="S8" t="s">
         <v>103</v>
       </c>
-      <c r="N8" t="s">
-        <v>105</v>
-      </c>
-      <c r="O8" t="s">
+      <c r="T8" t="s">
         <v>106</v>
       </c>
-      <c r="P8" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>117</v>
-      </c>
-      <c r="R8">
+      <c r="U8" t="s">
+        <v>114</v>
+      </c>
+      <c r="V8">
         <v>12</v>
       </c>
-      <c r="S8" t="s">
-        <v>126</v>
-      </c>
-      <c r="T8" t="s">
-        <v>128</v>
-      </c>
-      <c r="U8" t="s">
-        <v>135</v>
-      </c>
-      <c r="V8" t="s">
-        <v>144</v>
-      </c>
       <c r="W8" t="s">
-        <v>148</v>
+        <v>123</v>
+      </c>
+      <c r="X8" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>141</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>145</v>
       </c>
     </row>
-    <row r="9" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:27" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>6896493</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C9" s="5">
         <v>8366674</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>75</v>
+        <v>90</v>
+      </c>
+      <c r="F9" t="s">
+        <v>153</v>
+      </c>
+      <c r="G9" t="s">
+        <v>155</v>
+      </c>
+      <c r="H9">
+        <v>20</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>93</v>
+        <v>51</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="L9" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="N9" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="O9" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="P9" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q9" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="R9" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="M9" s="5" t="s">
+      <c r="S9" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="N9" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="O9" s="5" t="s">
+      <c r="T9" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="P9" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q9" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="R9" s="5">
+      <c r="U9" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="V9" s="5">
         <v>12</v>
       </c>
-      <c r="S9" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="T9" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="U9" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="V9" s="5" t="s">
-        <v>145</v>
-      </c>
       <c r="W9" s="5" t="s">
-        <v>149</v>
+        <v>121</v>
+      </c>
+      <c r="X9" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y9" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z9" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA9" s="5" t="s">
+        <v>146</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>3233913</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C10">
         <v>8397049</v>
       </c>
       <c r="D10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E10" t="s">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="F10" t="s">
-        <v>52</v>
+        <v>153</v>
       </c>
       <c r="G10" t="s">
-        <v>66</v>
-      </c>
-      <c r="H10" t="s">
-        <v>76</v>
+        <v>154</v>
+      </c>
+      <c r="H10">
+        <v>28</v>
       </c>
       <c r="I10" t="s">
-        <v>83</v>
+        <v>47</v>
       </c>
       <c r="J10" t="s">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="K10" t="s">
-        <v>92</v>
-      </c>
-      <c r="L10" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L10" t="s">
+        <v>73</v>
+      </c>
+      <c r="M10" t="s">
+        <v>80</v>
+      </c>
+      <c r="N10" t="s">
+        <v>88</v>
+      </c>
+      <c r="O10" t="s">
+        <v>89</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>100</v>
+      </c>
+      <c r="R10" t="s">
         <v>102</v>
       </c>
-      <c r="M10" t="s">
-        <v>103</v>
-      </c>
-      <c r="N10" t="s">
+      <c r="S10" t="s">
+        <v>104</v>
+      </c>
+      <c r="T10" t="s">
         <v>105</v>
       </c>
-      <c r="O10" t="s">
-        <v>107</v>
-      </c>
-      <c r="P10" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>119</v>
-      </c>
-      <c r="R10">
+      <c r="U10" t="s">
+        <v>116</v>
+      </c>
+      <c r="V10">
         <v>5</v>
       </c>
-      <c r="S10" t="s">
-        <v>127</v>
-      </c>
-      <c r="T10" t="s">
-        <v>128</v>
-      </c>
-      <c r="U10" t="s">
-        <v>136</v>
-      </c>
-      <c r="V10" t="s">
-        <v>146</v>
-      </c>
       <c r="W10" t="s">
-        <v>147</v>
+        <v>124</v>
+      </c>
+      <c r="X10" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>133</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>143</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>144</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
